--- a/attendance-system/Attendance System.xlsx
+++ b/attendance-system/Attendance System.xlsx
@@ -477,7 +477,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>09-Aug-2023 11:51:04</t>
+          <t>09-Aug-2023 15:40:00</t>
         </is>
       </c>
     </row>
